--- a/Parcial2/BDExcel/excel/dat.xlsx
+++ b/Parcial2/BDExcel/excel/dat.xlsx
@@ -440,7 +440,7 @@
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>3</x:v>
@@ -484,7 +484,7 @@
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>11</x:v>
